--- a/2018-CFP-NLP.xlsx
+++ b/2018-CFP-NLP.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheyou/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14145"/>
   </bookViews>
   <sheets>
-    <sheet name="cfp" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="cfp2018" sheetId="2" r:id="rId1"/>
+    <sheet name="bak" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.7.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stockholm, Sweden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://prada-research.net/pakdd18/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IJCNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ecomp.poli.br/~wcci2018/call-for-papers/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.01.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://easychair.org/cfp/sigir2018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IJCAI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,54 +514,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ijcai-18.org/cfp/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://coling2018.org/first-call-for-papers/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://reasoning.eas.asu.edu/kr2018/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.wikicfp.com/cfp/program?id=883</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.conll.org/cfp-2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.wikicfp.com/cfp/program?id=462&amp;s=CIKM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ecmlpkdd2018.org/key-dates-deadlines/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.wikicfp.com/cfp/program?id=785</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://2017.icml.cc/Conferences/2018/CallForPapers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://nips.cc/Conferences/2018/Dates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.kdd.org/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.data-mining-forum.de/important_dates.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,6 +645,50 @@
   </si>
   <si>
     <t>- TKDE</t>
+  </si>
+  <si>
+    <t>http://www.ccf.org.cn/xspj/rgzn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccf.org.cn/xspj/sjk/sjwj/nrjs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wikicfp.com/cfp/call?conference=NLP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://note.youdao.com/share/?id=a21273a424282ab2f6e0112c4f8291d5&amp;type=note#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York, USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -713,7 +696,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -724,16 +707,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ccf.org.cn/xspj/rgzn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">CCF </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -753,11 +732,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.ccf.org.cn/xspj/sjk/sjwj/nrjs/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.wikicfp.com/cfp/call?conference=NLP</t>
+    <t>2018.07.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://reasoning.eas.asu.edu/kr2018/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wsdm-conference.org/2018/call-for-papers.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://icde2018.org/index.php/welcome/important-dates/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://prada-research.net/pakdd18/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.data-mining-forum.de/important_dates.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ecomp.poli.br/~wcci2018/call-for-papers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://easychair.org/cfp/sigir2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ijcai-18.org/cfp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://2017.icml.cc/Conferences/2018/CallForPapers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.conll.org/cfp-2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ecmlpkdd2018.org/key-dates-deadlines/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wikicfp.com/cfp/program?id=785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nips.cc/Conferences/2018/Dates</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -765,57 +792,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://note.youdao.com/share/?id=a21273a424282ab2f6e0112c4f8291d5&amp;type=note#/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New York, USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.07.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://icde2018.org/index.php/welcome/important-dates/</t>
-  </si>
-  <si>
-    <t>http://www.wsdm-conference.org/2018/call-for-papers.html</t>
+    <t>2018.05.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,48 +837,62 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -953,8 +952,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -974,47 +974,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1322,674 +1323,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="13"/>
-    <col min="3" max="3" width="9.83203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="18" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="42.6640625" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="13"/>
+    <col min="3" max="3" width="9.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="22" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="42.625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E4" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="B10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B18" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="C20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="E24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="14"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="13" t="s">
+    </row>
+    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="9"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:I28">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I2 A5:I27 A3:A4 C3:I4 A28:D29 F28:I29 I3:I27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2001,8 +2013,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1"/>
@@ -2010,21 +2031,22 @@
     <hyperlink ref="I13" r:id="rId3"/>
     <hyperlink ref="I9" r:id="rId4"/>
     <hyperlink ref="I15" r:id="rId5"/>
-    <hyperlink ref="I27" r:id="rId6"/>
-    <hyperlink ref="I28" r:id="rId7"/>
+    <hyperlink ref="I26" r:id="rId6"/>
+    <hyperlink ref="I27" r:id="rId7"/>
     <hyperlink ref="I20" r:id="rId8"/>
     <hyperlink ref="I22" r:id="rId9"/>
     <hyperlink ref="I11" r:id="rId10"/>
     <hyperlink ref="I21" r:id="rId11"/>
     <hyperlink ref="I19" r:id="rId12"/>
-    <hyperlink ref="B34" r:id="rId13"/>
-    <hyperlink ref="B35" r:id="rId14"/>
-    <hyperlink ref="B36" r:id="rId15" location="/"/>
-    <hyperlink ref="D37" r:id="rId16"/>
-    <hyperlink ref="D38" r:id="rId17"/>
+    <hyperlink ref="B35" r:id="rId13"/>
+    <hyperlink ref="B36" r:id="rId14"/>
+    <hyperlink ref="B37" r:id="rId15" location="/"/>
+    <hyperlink ref="D38" r:id="rId16"/>
+    <hyperlink ref="D39" r:id="rId17"/>
+    <hyperlink ref="I17" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2036,11 +2058,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" customWidth="1"/>
+    <col min="4" max="5" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2067,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2089,7 +2111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2098,7 +2120,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2139,7 +2161,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2150,7 +2172,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2239,12 +2261,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>37</v>
       </c>

--- a/2018-CFP-NLP.xlsx
+++ b/2018-CFP-NLP.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="cfp2018" sheetId="2" r:id="rId1"/>
     <sheet name="bak" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="249">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.12.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.02.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,38 +439,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ECML PKDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.02.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ECML PKDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.02.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KDD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EACL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.01.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.03.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,10 +508,6 @@
   </si>
   <si>
     <t>http://www.wikicfp.com/cfp/program?id=462&amp;s=CIKM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.kdd.org/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -795,12 +776,288 @@
     <t>2018.05.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Parallel data</t>
+  </si>
+  <si>
+    <t>Mono-lingual mapping</t>
+  </si>
+  <si>
+    <t>Linear projection (Mikolov et al., 2013)</t>
+  </si>
+  <si>
+    <t>Lexicon</t>
+  </si>
+  <si>
+    <t>Projection via CCA (Faruqui and Dyer, 2014)</t>
+  </si>
+  <si>
+    <t>Normalisation and orthogonal transformation (Xing et al., 2015)</t>
+  </si>
+  <si>
+    <t>Max-margin and intruders (Lazaridou et al., 2015)</t>
+  </si>
+  <si>
+    <t>Alignment-based projection (Guo et al., 2015)</t>
+  </si>
+  <si>
+    <t>Word-aligned</t>
+  </si>
+  <si>
+    <t>Multilingual CCA (Ammar et al., 2016)</t>
+  </si>
+  <si>
+    <r>
+      <t>Hybrid mapping with symmetric seed lexicon (Vulić</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Korhonen, 2016)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lexicon, document-aligned</t>
+  </si>
+  <si>
+    <t>Orthogonal transformation, normalisation, and mean centering (Artetxe et al., 2016)</t>
+  </si>
+  <si>
+    <t>Adversarial auto-encoder (Barone, 2016)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pseudo-cross-lingual</t>
+  </si>
+  <si>
+    <t>Mapping of translations to same representation (Xiao and Guo, 2014)</t>
+  </si>
+  <si>
+    <t>Random translation replacement (Gouws and Sogaard, 2015)</t>
+  </si>
+  <si>
+    <t>On-the-fly replacement and polysemy handling (Duong et al., 2016)</t>
+  </si>
+  <si>
+    <t>Multilingual cluster (Ammar et al., 2016)</t>
+  </si>
+  <si>
+    <r>
+      <t>Document merge and shuffle (Vulić</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Moens, 2016)</t>
+    </r>
+  </si>
+  <si>
+    <t>Document-aligned</t>
+  </si>
+  <si>
+    <t>Cross-lingual training</t>
+  </si>
+  <si>
+    <t>Bilingual compositional sentence model (Hermann and Blunsom, 2013)</t>
+  </si>
+  <si>
+    <t>Sentence-aligned</t>
+  </si>
+  <si>
+    <t>Bilingual bag-of-words autoencoder (Lauly et al., 2013)</t>
+  </si>
+  <si>
+    <r>
+      <t>Distributed word alignment (Koč</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iský et al., 2014)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bilingual compositional document model (Hermann and Blunsom, 2014)</t>
+  </si>
+  <si>
+    <t>Bag-of-words autoencoder with correlation (Chandar et al., 2014)</t>
+  </si>
+  <si>
+    <t>Bilingual paragraph vectors (Pham et al., 2015)</t>
+  </si>
+  <si>
+    <t>Translation-invariant LSA (Gardner et al., 2015)</t>
+  </si>
+  <si>
+    <t>Inverted indexing on Wikipedia (Søgaard et al., 2015)</t>
+  </si>
+  <si>
+    <t>Joint optimisation</t>
+  </si>
+  <si>
+    <t>Multi-task language model (Klementiev et al., 2012)</t>
+  </si>
+  <si>
+    <t>Bilingual matrix factorisation (Zou et al., 2013)</t>
+  </si>
+  <si>
+    <t>Bilingual skip-gram (Luong et al., 2015)</t>
+  </si>
+  <si>
+    <t>Bilingual bag-of-words without word alignments (Gouws et al., 2015)</t>
+  </si>
+  <si>
+    <t>Bilingual skip-gram without word alignments (Coulmance et al., 2015)</t>
+  </si>
+  <si>
+    <t>Joint matrix factorisation (Shi et al., 2015)</t>
+  </si>
+  <si>
+    <t>Bilingual sparse representations (Vyas and Carpuat, 2016)</t>
+  </si>
+  <si>
+    <t>Bilingual paragraph vectors (without parallel data) (Mogadala and Rettinger, 2016)</t>
+  </si>
+  <si>
+    <t>Sentence-aligned/-</t>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kdd.org/kdd2018/</t>
+  </si>
+  <si>
+    <t>2018.05.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changchun, China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conference.cs.cityu.edu.hk/iconip/</t>
+  </si>
+  <si>
+    <t>比利时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.02.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,8 +1151,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,8 +1200,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -951,12 +1243,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -975,9 +1319,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,6 +1353,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1037,7 +1417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1325,37 +1705,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="13"/>
-    <col min="3" max="3" width="9.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="22" customWidth="1"/>
-    <col min="6" max="7" width="15.625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="42.625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="14"/>
+    <col min="1" max="1" width="4.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="12"/>
+    <col min="3" max="3" width="9.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="21" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="42.625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1372,611 +1752,663 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="E24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="14"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="D39" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1988,18 +2420,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:I2 A5:I27 A3:A4 C3:I4 A28:D29 F28:I29 I3:I27">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B37">
     <cfRule type="colorScale" priority="2">
@@ -2025,28 +2445,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A28:I28 A27:G27 A24:I24 A26:I26 A23:G23 A15:C15 A1:I2 A3:A4 C3:I4 A5:I14 I3:I14 I27 I22:I23 E15:H15 A16:I22">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1"/>
     <hyperlink ref="I12" r:id="rId2"/>
     <hyperlink ref="I13" r:id="rId3"/>
     <hyperlink ref="I9" r:id="rId4"/>
-    <hyperlink ref="I15" r:id="rId5"/>
-    <hyperlink ref="I26" r:id="rId6"/>
-    <hyperlink ref="I27" r:id="rId7"/>
-    <hyperlink ref="I20" r:id="rId8"/>
-    <hyperlink ref="I22" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I21" r:id="rId11"/>
-    <hyperlink ref="I19" r:id="rId12"/>
-    <hyperlink ref="B35" r:id="rId13"/>
-    <hyperlink ref="B36" r:id="rId14"/>
-    <hyperlink ref="B37" r:id="rId15" location="/"/>
-    <hyperlink ref="D38" r:id="rId16"/>
-    <hyperlink ref="D39" r:id="rId17"/>
-    <hyperlink ref="I17" r:id="rId18"/>
+    <hyperlink ref="I16" r:id="rId5"/>
+    <hyperlink ref="I22" r:id="rId6"/>
+    <hyperlink ref="I20" r:id="rId7"/>
+    <hyperlink ref="I28" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="I18" r:id="rId10"/>
+    <hyperlink ref="I27" r:id="rId11"/>
+    <hyperlink ref="B35" r:id="rId12"/>
+    <hyperlink ref="B36" r:id="rId13"/>
+    <hyperlink ref="B37" r:id="rId14" location="/"/>
+    <hyperlink ref="D38" r:id="rId15"/>
+    <hyperlink ref="D39" r:id="rId16"/>
+    <hyperlink ref="I23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -2296,4 +2727,337 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="monolingualmapping" display="http://ruder.io/cross-lingual-embeddings/index.html - monolingualmapping"/>
+    <hyperlink ref="C2" r:id="rId2" location="linearprojection" display="http://ruder.io/cross-lingual-embeddings/index.html - linearprojection"/>
+    <hyperlink ref="C3" r:id="rId3" location="projectionviacca" display="http://ruder.io/cross-lingual-embeddings/index.html - projectionviacca"/>
+    <hyperlink ref="C4" r:id="rId4" location="normalisationandorthogonaltransformation" display="http://ruder.io/cross-lingual-embeddings/index.html - normalisationandorthogonaltransformation"/>
+    <hyperlink ref="C5" r:id="rId5" location="maxmarginandintruders" display="http://ruder.io/cross-lingual-embeddings/index.html - maxmarginandintruders"/>
+    <hyperlink ref="C6" r:id="rId6" location="alignmentbasedprojection" display="http://ruder.io/cross-lingual-embeddings/index.html - alignmentbasedprojection"/>
+    <hyperlink ref="C7" r:id="rId7" location="multilingualcca" display="http://ruder.io/cross-lingual-embeddings/index.html - multilingualcca"/>
+    <hyperlink ref="C8" r:id="rId8" location="hybridmappingwithsymmetricseedlexicon" display="http://ruder.io/cross-lingual-embeddings/index.html - hybridmappingwithsymmetricseedlexicon"/>
+    <hyperlink ref="C9" r:id="rId9" location="orthogonaltransformationnormalisationandmeancentering" display="http://ruder.io/cross-lingual-embeddings/index.html - orthogonaltransformationnormalisationandmeancentering"/>
+    <hyperlink ref="C10" r:id="rId10" location="adversarialautoencoder" display="http://ruder.io/cross-lingual-embeddings/index.html - adversarialautoencoder"/>
+    <hyperlink ref="A11" r:id="rId11" location="pseudocrosslingual" display="http://ruder.io/cross-lingual-embeddings/index.html - pseudocrosslingual"/>
+    <hyperlink ref="C11" r:id="rId12" location="mappingoftranslationstosamerepresentation" display="http://ruder.io/cross-lingual-embeddings/index.html - mappingoftranslationstosamerepresentation"/>
+    <hyperlink ref="C12" r:id="rId13" location="randomtranslationreplacement" display="http://ruder.io/cross-lingual-embeddings/index.html - randomtranslationreplacement"/>
+    <hyperlink ref="C13" r:id="rId14" location="ontheflyreplacementandpolysemyhandling" display="http://ruder.io/cross-lingual-embeddings/index.html - ontheflyreplacementandpolysemyhandling"/>
+    <hyperlink ref="C14" r:id="rId15" location="multilingualcluster" display="http://ruder.io/cross-lingual-embeddings/index.html - multilingualcluster"/>
+    <hyperlink ref="C15" r:id="rId16" location="documentmergeandshuffle" display="http://ruder.io/cross-lingual-embeddings/index.html - documentmergeandshuffle"/>
+    <hyperlink ref="A16" r:id="rId17" location="crosslingualtraining" display="http://ruder.io/cross-lingual-embeddings/index.html - crosslingualtraining"/>
+    <hyperlink ref="C16" r:id="rId18" location="bilingualcompositionalsentencemodel" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualcompositionalsentencemodel"/>
+    <hyperlink ref="C17" r:id="rId19" location="bilingualbagofwordsautoencoder" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualbagofwordsautoencoder"/>
+    <hyperlink ref="C18" r:id="rId20" location="distributedwordalignment" display="http://ruder.io/cross-lingual-embeddings/index.html - distributedwordalignment"/>
+    <hyperlink ref="C19" r:id="rId21" location="bilingualcompositionaldocumentmodel" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualcompositionaldocumentmodel"/>
+    <hyperlink ref="C20" r:id="rId22" location="bagofwordsautoencoderwithcorrelation" display="http://ruder.io/cross-lingual-embeddings/index.html - bagofwordsautoencoderwithcorrelation"/>
+    <hyperlink ref="C21" r:id="rId23" location="bilingualparagraphvectors" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualparagraphvectors"/>
+    <hyperlink ref="C22" r:id="rId24" location="translationinvariantlsa" display="http://ruder.io/cross-lingual-embeddings/index.html - translationinvariantlsa"/>
+    <hyperlink ref="C23" r:id="rId25" location="invertedindexingonwikipedia" display="http://ruder.io/cross-lingual-embeddings/index.html - invertedindexingonwikipedia"/>
+    <hyperlink ref="A24" r:id="rId26" location="jointoptimisation" display="http://ruder.io/cross-lingual-embeddings/index.html - jointoptimisation"/>
+    <hyperlink ref="C24" r:id="rId27" location="multitasklanguagemodel" display="http://ruder.io/cross-lingual-embeddings/index.html - multitasklanguagemodel"/>
+    <hyperlink ref="C25" r:id="rId28" location="bilingualmatrixfactorisation" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualmatrixfactorisation"/>
+    <hyperlink ref="C26" r:id="rId29" location="bilingualskipgram" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualskipgram"/>
+    <hyperlink ref="C27" r:id="rId30" location="bilingualbagofwordswithoutwordalignments" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualbagofwordswithoutwordalignments"/>
+    <hyperlink ref="C28" r:id="rId31" location="bilingualskipgramwithoutwordalignments" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualskipgramwithoutwordalignments"/>
+    <hyperlink ref="C29" r:id="rId32" location="jointmatrixfactorisation" display="http://ruder.io/cross-lingual-embeddings/index.html - jointmatrixfactorisation"/>
+    <hyperlink ref="C30" r:id="rId33" location="bilingualsparserepresentations" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualsparserepresentations"/>
+    <hyperlink ref="C31" r:id="rId34" location="bilingualparagraphvectorswithoutparalleldata" display="http://ruder.io/cross-lingual-embeddings/index.html - bilingualparagraphvectorswithoutparalleldata"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId35"/>
+</worksheet>
 </file>
--- a/2018-CFP-NLP.xlsx
+++ b/2018-CFP-NLP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="252">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.06.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Melbourne, Australia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,10 +333,6 @@
   </si>
   <si>
     <t>CIKM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1029,10 +1021,6 @@
     <t>https://conference.cs.cityu.edu.hk/iconip/</t>
   </si>
   <si>
-    <t>比利时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.02.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1050,6 +1038,29 @@
   </si>
   <si>
     <t>2018.05.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brussels, Belgium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>2018.07.08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1068,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,13 +1183,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3E3E3E"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1300,7 +1304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1365,6 +1369,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1382,15 +1392,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1703,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1724,18 +1725,18 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -1753,109 +1754,109 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>158</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>100</v>
       </c>
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>86</v>
       </c>
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>85</v>
+      <c r="E8" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>23</v>
@@ -1867,30 +1868,30 @@
         <v>47</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>85</v>
+      <c r="E9" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>51</v>
@@ -1898,62 +1899,62 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>226</v>
+        <v>107</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="28" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>14</v>
@@ -1961,112 +1962,112 @@
       <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>59</v>
+      <c r="E12" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>62</v>
+      <c r="E13" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>50</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>244</v>
+        <v>105</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>52</v>
@@ -2074,270 +2075,279 @@
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="I18" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="I20" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>243</v>
+      <c r="H23" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>237</v>
+        <v>247</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="A25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="35"/>
+        <v>104</v>
+      </c>
       <c r="I27" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>147</v>
+      <c r="B31" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="17"/>
@@ -2346,8 +2356,8 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>148</v>
+      <c r="B32" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="17"/>
@@ -2356,8 +2366,8 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>149</v>
+      <c r="B33" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="17"/>
@@ -2366,62 +2376,88 @@
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="B34" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="20"/>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="20"/>
+        <v>175</v>
+      </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="I37" s="13"/>
+      <c r="B37" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="22"/>
+        <v>160</v>
+      </c>
       <c r="D38" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B37">
+  <conditionalFormatting sqref="B34:B36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D38">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:I27 A23:G24 A15:C15 A1:I2 A3:A4 C3:I4 A5:I14 I3:I14 I22:I24 E15:H15 A16:I22">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2433,20 +2469,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D39">
+  <conditionalFormatting sqref="H23">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:I28 A27:G27 A24:I24 A26:I26 A23:G23 A15:C15 A1:I2 A3:A4 C3:I4 A5:I14 I3:I14 I27 I22:I23 E15:H15 A16:I22">
-    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2465,15 +2489,15 @@
     <hyperlink ref="I16" r:id="rId5"/>
     <hyperlink ref="I22" r:id="rId6"/>
     <hyperlink ref="I20" r:id="rId7"/>
-    <hyperlink ref="I28" r:id="rId8"/>
+    <hyperlink ref="I27" r:id="rId8"/>
     <hyperlink ref="I11" r:id="rId9"/>
     <hyperlink ref="I18" r:id="rId10"/>
-    <hyperlink ref="I27" r:id="rId11"/>
-    <hyperlink ref="B35" r:id="rId12"/>
-    <hyperlink ref="B36" r:id="rId13"/>
-    <hyperlink ref="B37" r:id="rId14" location="/"/>
-    <hyperlink ref="D38" r:id="rId15"/>
-    <hyperlink ref="D39" r:id="rId16"/>
+    <hyperlink ref="I24" r:id="rId11"/>
+    <hyperlink ref="B34" r:id="rId12"/>
+    <hyperlink ref="B35" r:id="rId13"/>
+    <hyperlink ref="B36" r:id="rId14" location="/"/>
+    <hyperlink ref="D37" r:id="rId15"/>
+    <hyperlink ref="D38" r:id="rId16"/>
     <hyperlink ref="I23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2745,266 +2769,266 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="25" t="s">
+      <c r="C7" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="C24" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="25" t="s">
+    <row r="28" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="25" t="s">
+    <row r="29" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="25" t="s">
+    <row r="30" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+      <c r="B30" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="25" t="s">
+    <row r="31" spans="1:3" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/2018-CFP-NLP.xlsx
+++ b/2018-CFP-NLP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="261">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.03.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,22 +351,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AAAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WWW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>acronym</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.03.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>odd year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ICONIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,31 +604,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>New York, USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.07.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WSDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ICDE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -725,10 +673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.data-mining-forum.de/important_dates.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.ecomp.poli.br/~wcci2018/call-for-papers/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -762,10 +706,6 @@
   </si>
   <si>
     <t>http://cs.rochester.edu/~omidb/nlpcalendar/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -954,10 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.01.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.05.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,93 +910,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018.08.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changchun, China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://conference.cs.cityu.edu.hk/iconip/</t>
+  </si>
+  <si>
+    <t>2018.02.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.04.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brussels, Belgium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>2018.07.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2018.05.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.08.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.10.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changchun, China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.08.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.04.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.06.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ireland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cambodia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://conference.cs.cityu.edu.hk/iconip/</t>
-  </si>
-  <si>
-    <t>2018.02.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.04.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.04.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.06.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.07.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.10.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brussels, Belgium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
-    <t>2018.07.08</t>
+    <t>2018.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.03.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://icdm2018.org/calls/call-for-papers/</t>
+  </si>
+  <si>
+    <t>Singapore, Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 2019-01-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hawaii, USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 2018.08.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-02-11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 2018.11.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Francisco, CA, USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melbourne, Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.08.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.09.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odd year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:I27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1725,13 +1760,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -1754,76 +1789,103 @@
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>83</v>
+        <v>245</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>156</v>
+        <v>244</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>164</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>98</v>
@@ -1832,31 +1894,31 @@
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>23</v>
@@ -1868,21 +1930,21 @@
         <v>47</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>63</v>
@@ -1899,152 +1961,152 @@
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>107</v>
+        <v>117</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>170</v>
+        <v>224</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>222</v>
+        <v>67</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,277 +2114,283 @@
         <v>86</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>71</v>
+        <v>94</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>243</v>
+        <v>106</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>172</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>244</v>
+        <v>97</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="I19" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>229</v>
+        <v>71</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>238</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>245</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>176</v>
+      <c r="E22" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>116</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>249</v>
+        <v>100</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>259</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>106</v>
+        <v>132</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>104</v>
+        <v>243</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2405,7 @@
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="17"/>
@@ -2347,7 +2415,7 @@
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="17"/>
@@ -2357,7 +2425,7 @@
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="17"/>
@@ -2367,7 +2435,7 @@
     </row>
     <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="17"/>
@@ -2377,38 +2445,38 @@
     </row>
     <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C34" s="20"/>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2419,10 +2487,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2434,6 +2502,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D38">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19 E21:E22">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:G25 A4:C4 A14:C14 D1:I1 A3 I22 E14:H14 A15:I15 F22:G22 A16:D24 F16:I21 A26:I27 C3 A1:C2 A6:I13 I2:I7 C5:I5 A5 E5:E9 F4:G4 F23:I24 I25">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D3 G3:H3 F2:H2">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2445,19 +2609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:I27 A23:G24 A15:C15 A1:I2 A3:A4 C3:I4 A5:I14 I3:I14 I22:I24 E15:H15 A16:I22">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="E2:E4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2469,7 +2621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="E23:E24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2483,22 +2635,22 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1"/>
-    <hyperlink ref="I12" r:id="rId2"/>
-    <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I11" r:id="rId2"/>
+    <hyperlink ref="I12" r:id="rId3"/>
     <hyperlink ref="I9" r:id="rId4"/>
-    <hyperlink ref="I16" r:id="rId5"/>
-    <hyperlink ref="I22" r:id="rId6"/>
-    <hyperlink ref="I20" r:id="rId7"/>
-    <hyperlink ref="I27" r:id="rId8"/>
-    <hyperlink ref="I11" r:id="rId9"/>
-    <hyperlink ref="I18" r:id="rId10"/>
-    <hyperlink ref="I24" r:id="rId11"/>
+    <hyperlink ref="I15" r:id="rId5"/>
+    <hyperlink ref="I20" r:id="rId6"/>
+    <hyperlink ref="I21" r:id="rId7"/>
+    <hyperlink ref="I24" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I17" r:id="rId10"/>
+    <hyperlink ref="I25" r:id="rId11"/>
     <hyperlink ref="B34" r:id="rId12"/>
     <hyperlink ref="B35" r:id="rId13"/>
     <hyperlink ref="B36" r:id="rId14" location="/"/>
-    <hyperlink ref="D37" r:id="rId15"/>
-    <hyperlink ref="D38" r:id="rId16"/>
-    <hyperlink ref="I23" r:id="rId17"/>
+    <hyperlink ref="I22" r:id="rId15"/>
+    <hyperlink ref="D37" r:id="rId16"/>
+    <hyperlink ref="D38" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
@@ -2769,266 +2921,266 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="34"/>
       <c r="C3" s="25" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="34"/>
       <c r="C4" s="25" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="35"/>
       <c r="C5" s="25" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="26" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="26" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="26" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="26" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="26" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="34"/>
       <c r="C12" s="25" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="34"/>
       <c r="C13" s="25" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="35"/>
       <c r="C14" s="25" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="26" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="35"/>
       <c r="C17" s="25" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="34"/>
       <c r="C19" s="25" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="34"/>
       <c r="C20" s="25" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="35"/>
       <c r="C21" s="25" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="26" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="26" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="34"/>
       <c r="C25" s="25" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="35"/>
       <c r="C26" s="25" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="33" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="34"/>
       <c r="C28" s="25" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="35"/>
       <c r="C29" s="25" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="26" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="26" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
